--- a/system_cases/Oscillation_July/DEF_2SG.xlsx
+++ b/system_cases/Oscillation_July/DEF_2SG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\system_cases\Oscillation_July\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA038BDD-1C9E-4CC7-9E77-9E723D2CEA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4609ED0D-3A30-41BD-86D4-72B7935E8B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Advance" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -818,7 +817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +933,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,10 +1028,10 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
         <v>0.1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1183,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,8 +1209,8 @@
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <f>B4*2400</f>
-        <v>120000</v>
+        <f>B4*2500</f>
+        <v>125000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
